--- a/Data/Excel/BulletData.xlsx
+++ b/Data/Excel/BulletData.xlsx
@@ -5,43 +5,52 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="子弹特效参数" sheetId="1" r:id="rId1"/>
+    <sheet name="子弹数据表" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>子弹名字</t>
+    <t>特效ID</t>
   </si>
   <si>
-    <t>子弹完整路径</t>
+    <t>单个子弹伤害</t>
+  </si>
+  <si>
+    <t>单次射击数</t>
+  </si>
+  <si>
+    <t>射击速度</t>
+  </si>
+  <si>
+    <t>射击间隔</t>
+  </si>
+  <si>
+    <t>子弹速度</t>
+  </si>
+  <si>
+    <t>穿透数量</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>全BUFF0</t>
-  </si>
-  <si>
-    <t>near2y</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>全BUFF1</t>
+    <t>5</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>全BUFF2</t>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -87,15 +96,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.93415069580078" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="14.5440837315151" customWidth="1"/>
+    <col min="4" max="4" width="12.2391172136579" customWidth="1"/>
+    <col min="5" max="5" width="9.93415069580078" customWidth="1"/>
+    <col min="6" max="6" width="9.93415069580078" customWidth="1"/>
+    <col min="7" max="7" width="9.93415069580078" customWidth="1"/>
+    <col min="8" max="8" width="9.93415069580078" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -108,38 +122,46 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>6</v>
+      <c r="D2" s="0" t="s">
+        <v>11</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>7</v>
+      <c r="E2" s="0" t="s">
+        <v>11</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>5</v>
+      <c r="F2" s="0" t="s">
+        <v>10</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>8</v>
+      <c r="G2" s="0" t="s">
+        <v>12</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
